--- a/data/136/ANFIA/Italy New registrations_historical.xlsx
+++ b/data/136/ANFIA/Italy New registrations_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KO30"/>
+  <dimension ref="A1:LA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1865,6 +1865,66 @@
       <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>2021-12</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2586,7 @@
         <v>20234</v>
       </c>
       <c r="KE2" t="n">
-        <v>22785</v>
+        <v>22786</v>
       </c>
       <c r="KF2" t="n">
         <v>26424</v>
@@ -2544,18 +2604,36 @@
         <v>16436</v>
       </c>
       <c r="KK2" t="n">
-        <v>9338</v>
+        <v>9339</v>
       </c>
       <c r="KL2" t="n">
-        <v>13179</v>
+        <v>13185</v>
       </c>
       <c r="KM2" t="n">
-        <v>17120</v>
+        <v>17123</v>
       </c>
       <c r="KN2" t="n">
-        <v>15251</v>
-      </c>
-      <c r="KO2" t="inlineStr"/>
+        <v>15255</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>4645</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>16033</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>16066</v>
+      </c>
+      <c r="KR2" t="inlineStr"/>
+      <c r="KS2" t="inlineStr"/>
+      <c r="KT2" t="inlineStr"/>
+      <c r="KU2" t="inlineStr"/>
+      <c r="KV2" t="inlineStr"/>
+      <c r="KW2" t="inlineStr"/>
+      <c r="KX2" t="inlineStr"/>
+      <c r="KY2" t="inlineStr"/>
+      <c r="KZ2" t="inlineStr"/>
+      <c r="LA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3227,13 +3305,13 @@
         <v>8109</v>
       </c>
       <c r="KI3" t="n">
-        <v>8074</v>
+        <v>8075</v>
       </c>
       <c r="KJ3" t="n">
-        <v>6168</v>
+        <v>6169</v>
       </c>
       <c r="KK3" t="n">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="KL3" t="n">
         <v>4114</v>
@@ -3242,9 +3320,27 @@
         <v>4439</v>
       </c>
       <c r="KN3" t="n">
-        <v>4657</v>
-      </c>
-      <c r="KO3" t="inlineStr"/>
+        <v>4661</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>538</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>6641</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>6931</v>
+      </c>
+      <c r="KR3" t="inlineStr"/>
+      <c r="KS3" t="inlineStr"/>
+      <c r="KT3" t="inlineStr"/>
+      <c r="KU3" t="inlineStr"/>
+      <c r="KV3" t="inlineStr"/>
+      <c r="KW3" t="inlineStr"/>
+      <c r="KX3" t="inlineStr"/>
+      <c r="KY3" t="inlineStr"/>
+      <c r="KZ3" t="inlineStr"/>
+      <c r="LA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3925,15 +4021,51 @@
         <v>1733</v>
       </c>
       <c r="KL4" t="n">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="KM4" t="n">
         <v>3736</v>
       </c>
       <c r="KN4" t="n">
-        <v>4383</v>
+        <v>4377</v>
       </c>
       <c r="KO4" t="n">
+        <v>3193</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>3460</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>4729</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4616,15 +4748,33 @@
         <v>1499</v>
       </c>
       <c r="KL5" t="n">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="KM5" t="n">
         <v>2497</v>
       </c>
       <c r="KN5" t="n">
-        <v>3356</v>
-      </c>
-      <c r="KO5" t="inlineStr"/>
+        <v>3357</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>1829</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>3609</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>4436</v>
+      </c>
+      <c r="KR5" t="inlineStr"/>
+      <c r="KS5" t="inlineStr"/>
+      <c r="KT5" t="inlineStr"/>
+      <c r="KU5" t="inlineStr"/>
+      <c r="KV5" t="inlineStr"/>
+      <c r="KW5" t="inlineStr"/>
+      <c r="KX5" t="inlineStr"/>
+      <c r="KY5" t="inlineStr"/>
+      <c r="KZ5" t="inlineStr"/>
+      <c r="LA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5284,7 +5434,7 @@
         <v>936</v>
       </c>
       <c r="KE6" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="KF6" t="n">
         <v>1241</v>
@@ -5293,7 +5443,7 @@
         <v>977</v>
       </c>
       <c r="KH6" t="n">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="KI6" t="n">
         <v>1124</v>
@@ -5308,12 +5458,30 @@
         <v>942</v>
       </c>
       <c r="KM6" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="KN6" t="n">
         <v>954</v>
       </c>
-      <c r="KO6" t="inlineStr"/>
+      <c r="KO6" t="n">
+        <v>13503</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>697</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>640</v>
+      </c>
+      <c r="KR6" t="inlineStr"/>
+      <c r="KS6" t="inlineStr"/>
+      <c r="KT6" t="inlineStr"/>
+      <c r="KU6" t="inlineStr"/>
+      <c r="KV6" t="inlineStr"/>
+      <c r="KW6" t="inlineStr"/>
+      <c r="KX6" t="inlineStr"/>
+      <c r="KY6" t="inlineStr"/>
+      <c r="KZ6" t="inlineStr"/>
+      <c r="LA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6000,7 +6168,25 @@
       <c r="KN7" t="n">
         <v>121</v>
       </c>
-      <c r="KO7" t="inlineStr"/>
+      <c r="KO7" t="n">
+        <v>146</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>104</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>128</v>
+      </c>
+      <c r="KR7" t="inlineStr"/>
+      <c r="KS7" t="inlineStr"/>
+      <c r="KT7" t="inlineStr"/>
+      <c r="KU7" t="inlineStr"/>
+      <c r="KV7" t="inlineStr"/>
+      <c r="KW7" t="inlineStr"/>
+      <c r="KX7" t="inlineStr"/>
+      <c r="KY7" t="inlineStr"/>
+      <c r="KZ7" t="inlineStr"/>
+      <c r="LA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6681,15 +6867,33 @@
         <v>5721</v>
       </c>
       <c r="KL8" t="n">
-        <v>9451</v>
+        <v>9452</v>
       </c>
       <c r="KM8" t="n">
         <v>7645</v>
       </c>
       <c r="KN8" t="n">
-        <v>8723</v>
-      </c>
-      <c r="KO8" t="inlineStr"/>
+        <v>8727</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>157</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>7863</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>7265</v>
+      </c>
+      <c r="KR8" t="inlineStr"/>
+      <c r="KS8" t="inlineStr"/>
+      <c r="KT8" t="inlineStr"/>
+      <c r="KU8" t="inlineStr"/>
+      <c r="KV8" t="inlineStr"/>
+      <c r="KW8" t="inlineStr"/>
+      <c r="KX8" t="inlineStr"/>
+      <c r="KY8" t="inlineStr"/>
+      <c r="KZ8" t="inlineStr"/>
+      <c r="LA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7378,7 +7582,25 @@
       <c r="KN9" t="n">
         <v>3290</v>
       </c>
-      <c r="KO9" t="inlineStr"/>
+      <c r="KO9" t="n">
+        <v>7558</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>2984</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>4371</v>
+      </c>
+      <c r="KR9" t="inlineStr"/>
+      <c r="KS9" t="inlineStr"/>
+      <c r="KT9" t="inlineStr"/>
+      <c r="KU9" t="inlineStr"/>
+      <c r="KV9" t="inlineStr"/>
+      <c r="KW9" t="inlineStr"/>
+      <c r="KX9" t="inlineStr"/>
+      <c r="KY9" t="inlineStr"/>
+      <c r="KZ9" t="inlineStr"/>
+      <c r="LA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -8067,7 +8289,25 @@
       <c r="KN10" t="n">
         <v>1348</v>
       </c>
-      <c r="KO10" t="inlineStr"/>
+      <c r="KO10" t="n">
+        <v>476</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>1781</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>1988</v>
+      </c>
+      <c r="KR10" t="inlineStr"/>
+      <c r="KS10" t="inlineStr"/>
+      <c r="KT10" t="inlineStr"/>
+      <c r="KU10" t="inlineStr"/>
+      <c r="KV10" t="inlineStr"/>
+      <c r="KW10" t="inlineStr"/>
+      <c r="KX10" t="inlineStr"/>
+      <c r="KY10" t="inlineStr"/>
+      <c r="KZ10" t="inlineStr"/>
+      <c r="LA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -8756,7 +8996,25 @@
       <c r="KN11" t="n">
         <v>1476</v>
       </c>
-      <c r="KO11" t="inlineStr"/>
+      <c r="KO11" t="n">
+        <v>829</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>1032</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>1312</v>
+      </c>
+      <c r="KR11" t="inlineStr"/>
+      <c r="KS11" t="inlineStr"/>
+      <c r="KT11" t="inlineStr"/>
+      <c r="KU11" t="inlineStr"/>
+      <c r="KV11" t="inlineStr"/>
+      <c r="KW11" t="inlineStr"/>
+      <c r="KX11" t="inlineStr"/>
+      <c r="KY11" t="inlineStr"/>
+      <c r="KZ11" t="inlineStr"/>
+      <c r="LA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -9437,7 +9695,25 @@
       <c r="KN12" t="n">
         <v>15</v>
       </c>
-      <c r="KO12" t="inlineStr"/>
+      <c r="KO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="KR12" t="inlineStr"/>
+      <c r="KS12" t="inlineStr"/>
+      <c r="KT12" t="inlineStr"/>
+      <c r="KU12" t="inlineStr"/>
+      <c r="KV12" t="inlineStr"/>
+      <c r="KW12" t="inlineStr"/>
+      <c r="KX12" t="inlineStr"/>
+      <c r="KY12" t="inlineStr"/>
+      <c r="KZ12" t="inlineStr"/>
+      <c r="LA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -10097,7 +10373,7 @@
         <v>6900</v>
       </c>
       <c r="KE13" t="n">
-        <v>6581</v>
+        <v>6582</v>
       </c>
       <c r="KF13" t="n">
         <v>8714</v>
@@ -10124,9 +10400,27 @@
         <v>5739</v>
       </c>
       <c r="KN13" t="n">
-        <v>5842</v>
-      </c>
-      <c r="KO13" t="inlineStr"/>
+        <v>5832</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>974</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>5417</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>5292</v>
+      </c>
+      <c r="KR13" t="inlineStr"/>
+      <c r="KS13" t="inlineStr"/>
+      <c r="KT13" t="inlineStr"/>
+      <c r="KU13" t="inlineStr"/>
+      <c r="KV13" t="inlineStr"/>
+      <c r="KW13" t="inlineStr"/>
+      <c r="KX13" t="inlineStr"/>
+      <c r="KY13" t="inlineStr"/>
+      <c r="KZ13" t="inlineStr"/>
+      <c r="LA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -10792,7 +11086,7 @@
         <v>9288</v>
       </c>
       <c r="KG14" t="n">
-        <v>8471</v>
+        <v>8472</v>
       </c>
       <c r="KH14" t="n">
         <v>9013</v>
@@ -10804,10 +11098,10 @@
         <v>6838</v>
       </c>
       <c r="KK14" t="n">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="KL14" t="n">
-        <v>5914</v>
+        <v>5923</v>
       </c>
       <c r="KM14" t="n">
         <v>6195</v>
@@ -10816,6 +11110,42 @@
         <v>6887</v>
       </c>
       <c r="KO14" t="n">
+        <v>141</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>7870</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>6278</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11501,12 +11831,30 @@
         <v>5862</v>
       </c>
       <c r="KM15" t="n">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="KN15" t="n">
-        <v>4832</v>
-      </c>
-      <c r="KO15" t="inlineStr"/>
+        <v>4836</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>2998</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>8170</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>8656</v>
+      </c>
+      <c r="KR15" t="inlineStr"/>
+      <c r="KS15" t="inlineStr"/>
+      <c r="KT15" t="inlineStr"/>
+      <c r="KU15" t="inlineStr"/>
+      <c r="KV15" t="inlineStr"/>
+      <c r="KW15" t="inlineStr"/>
+      <c r="KX15" t="inlineStr"/>
+      <c r="KY15" t="inlineStr"/>
+      <c r="KZ15" t="inlineStr"/>
+      <c r="LA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -12195,7 +12543,25 @@
       <c r="KN16" t="n">
         <v>3842</v>
       </c>
-      <c r="KO16" t="inlineStr"/>
+      <c r="KO16" t="n">
+        <v>3139</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>3139</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>3630</v>
+      </c>
+      <c r="KR16" t="inlineStr"/>
+      <c r="KS16" t="inlineStr"/>
+      <c r="KT16" t="inlineStr"/>
+      <c r="KU16" t="inlineStr"/>
+      <c r="KV16" t="inlineStr"/>
+      <c r="KW16" t="inlineStr"/>
+      <c r="KX16" t="inlineStr"/>
+      <c r="KY16" t="inlineStr"/>
+      <c r="KZ16" t="inlineStr"/>
+      <c r="LA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -12876,15 +13242,33 @@
         <v>2892</v>
       </c>
       <c r="KL17" t="n">
-        <v>4777</v>
+        <v>4778</v>
       </c>
       <c r="KM17" t="n">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="KN17" t="n">
-        <v>3872</v>
-      </c>
-      <c r="KO17" t="inlineStr"/>
+        <v>3873</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>2380</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>3152</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>3608</v>
+      </c>
+      <c r="KR17" t="inlineStr"/>
+      <c r="KS17" t="inlineStr"/>
+      <c r="KT17" t="inlineStr"/>
+      <c r="KU17" t="inlineStr"/>
+      <c r="KV17" t="inlineStr"/>
+      <c r="KW17" t="inlineStr"/>
+      <c r="KX17" t="inlineStr"/>
+      <c r="KY17" t="inlineStr"/>
+      <c r="KZ17" t="inlineStr"/>
+      <c r="LA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -13573,7 +13957,25 @@
       <c r="KN18" t="n">
         <v>3519</v>
       </c>
-      <c r="KO18" t="inlineStr"/>
+      <c r="KO18" t="n">
+        <v>6368</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>4284</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>4250</v>
+      </c>
+      <c r="KR18" t="inlineStr"/>
+      <c r="KS18" t="inlineStr"/>
+      <c r="KT18" t="inlineStr"/>
+      <c r="KU18" t="inlineStr"/>
+      <c r="KV18" t="inlineStr"/>
+      <c r="KW18" t="inlineStr"/>
+      <c r="KX18" t="inlineStr"/>
+      <c r="KY18" t="inlineStr"/>
+      <c r="KZ18" t="inlineStr"/>
+      <c r="LA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -14262,7 +14664,25 @@
       <c r="KN19" t="n">
         <v>1643</v>
       </c>
-      <c r="KO19" t="inlineStr"/>
+      <c r="KO19" t="n">
+        <v>1331</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>1872</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>1664</v>
+      </c>
+      <c r="KR19" t="inlineStr"/>
+      <c r="KS19" t="inlineStr"/>
+      <c r="KT19" t="inlineStr"/>
+      <c r="KU19" t="inlineStr"/>
+      <c r="KV19" t="inlineStr"/>
+      <c r="KW19" t="inlineStr"/>
+      <c r="KX19" t="inlineStr"/>
+      <c r="KY19" t="inlineStr"/>
+      <c r="KZ19" t="inlineStr"/>
+      <c r="LA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -14949,9 +15369,27 @@
         <v>3666</v>
       </c>
       <c r="KN20" t="n">
-        <v>3232</v>
-      </c>
-      <c r="KO20" t="inlineStr"/>
+        <v>3240</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>1666</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>3144</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>3399</v>
+      </c>
+      <c r="KR20" t="inlineStr"/>
+      <c r="KS20" t="inlineStr"/>
+      <c r="KT20" t="inlineStr"/>
+      <c r="KU20" t="inlineStr"/>
+      <c r="KV20" t="inlineStr"/>
+      <c r="KW20" t="inlineStr"/>
+      <c r="KX20" t="inlineStr"/>
+      <c r="KY20" t="inlineStr"/>
+      <c r="KZ20" t="inlineStr"/>
+      <c r="LA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -15638,9 +16076,27 @@
         <v>682</v>
       </c>
       <c r="KN21" t="n">
-        <v>624</v>
-      </c>
-      <c r="KO21" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>321</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>266</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>322</v>
+      </c>
+      <c r="KR21" t="inlineStr"/>
+      <c r="KS21" t="inlineStr"/>
+      <c r="KT21" t="inlineStr"/>
+      <c r="KU21" t="inlineStr"/>
+      <c r="KV21" t="inlineStr"/>
+      <c r="KW21" t="inlineStr"/>
+      <c r="KX21" t="inlineStr"/>
+      <c r="KY21" t="inlineStr"/>
+      <c r="KZ21" t="inlineStr"/>
+      <c r="LA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -16324,12 +16780,30 @@
         <v>3673</v>
       </c>
       <c r="KM22" t="n">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="KN22" t="n">
-        <v>2497</v>
-      </c>
-      <c r="KO22" t="inlineStr"/>
+        <v>2498</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>867</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>2625</v>
+      </c>
+      <c r="KQ22" t="n">
+        <v>2411</v>
+      </c>
+      <c r="KR22" t="inlineStr"/>
+      <c r="KS22" t="inlineStr"/>
+      <c r="KT22" t="inlineStr"/>
+      <c r="KU22" t="inlineStr"/>
+      <c r="KV22" t="inlineStr"/>
+      <c r="KW22" t="inlineStr"/>
+      <c r="KX22" t="inlineStr"/>
+      <c r="KY22" t="inlineStr"/>
+      <c r="KZ22" t="inlineStr"/>
+      <c r="LA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -17018,7 +17492,25 @@
       <c r="KN23" t="n">
         <v>2350</v>
       </c>
-      <c r="KO23" t="inlineStr"/>
+      <c r="KO23" t="n">
+        <v>802</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>1843</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>2180</v>
+      </c>
+      <c r="KR23" t="inlineStr"/>
+      <c r="KS23" t="inlineStr"/>
+      <c r="KT23" t="inlineStr"/>
+      <c r="KU23" t="inlineStr"/>
+      <c r="KV23" t="inlineStr"/>
+      <c r="KW23" t="inlineStr"/>
+      <c r="KX23" t="inlineStr"/>
+      <c r="KY23" t="inlineStr"/>
+      <c r="KZ23" t="inlineStr"/>
+      <c r="LA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -17707,7 +18199,25 @@
       <c r="KN24" t="n">
         <v>1420</v>
       </c>
-      <c r="KO24" t="inlineStr"/>
+      <c r="KO24" t="n">
+        <v>251</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>961</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>1031</v>
+      </c>
+      <c r="KR24" t="inlineStr"/>
+      <c r="KS24" t="inlineStr"/>
+      <c r="KT24" t="inlineStr"/>
+      <c r="KU24" t="inlineStr"/>
+      <c r="KV24" t="inlineStr"/>
+      <c r="KW24" t="inlineStr"/>
+      <c r="KX24" t="inlineStr"/>
+      <c r="KY24" t="inlineStr"/>
+      <c r="KZ24" t="inlineStr"/>
+      <c r="LA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -18379,7 +18889,7 @@
         <v>1231</v>
       </c>
       <c r="KI25" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="KJ25" t="n">
         <v>902</v>
@@ -18394,9 +18904,27 @@
         <v>864</v>
       </c>
       <c r="KN25" t="n">
-        <v>583</v>
-      </c>
-      <c r="KO25" t="inlineStr"/>
+        <v>585</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>2211</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>566</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>409</v>
+      </c>
+      <c r="KR25" t="inlineStr"/>
+      <c r="KS25" t="inlineStr"/>
+      <c r="KT25" t="inlineStr"/>
+      <c r="KU25" t="inlineStr"/>
+      <c r="KV25" t="inlineStr"/>
+      <c r="KW25" t="inlineStr"/>
+      <c r="KX25" t="inlineStr"/>
+      <c r="KY25" t="inlineStr"/>
+      <c r="KZ25" t="inlineStr"/>
+      <c r="LA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -19085,7 +19613,25 @@
       <c r="KN26" t="n">
         <v>873</v>
       </c>
-      <c r="KO26" t="inlineStr"/>
+      <c r="KO26" t="n">
+        <v>1482</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>807</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>941</v>
+      </c>
+      <c r="KR26" t="inlineStr"/>
+      <c r="KS26" t="inlineStr"/>
+      <c r="KT26" t="inlineStr"/>
+      <c r="KU26" t="inlineStr"/>
+      <c r="KV26" t="inlineStr"/>
+      <c r="KW26" t="inlineStr"/>
+      <c r="KX26" t="inlineStr"/>
+      <c r="KY26" t="inlineStr"/>
+      <c r="KZ26" t="inlineStr"/>
+      <c r="LA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -19772,9 +20318,27 @@
         <v>704</v>
       </c>
       <c r="KN27" t="n">
-        <v>538</v>
-      </c>
-      <c r="KO27" t="inlineStr"/>
+        <v>539</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>2312</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>576</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>719</v>
+      </c>
+      <c r="KR27" t="inlineStr"/>
+      <c r="KS27" t="inlineStr"/>
+      <c r="KT27" t="inlineStr"/>
+      <c r="KU27" t="inlineStr"/>
+      <c r="KV27" t="inlineStr"/>
+      <c r="KW27" t="inlineStr"/>
+      <c r="KX27" t="inlineStr"/>
+      <c r="KY27" t="inlineStr"/>
+      <c r="KZ27" t="inlineStr"/>
+      <c r="LA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -20463,7 +21027,25 @@
       <c r="KN28" t="n">
         <v>213</v>
       </c>
-      <c r="KO28" t="inlineStr"/>
+      <c r="KO28" t="n">
+        <v>1258</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>93</v>
+      </c>
+      <c r="KQ28" t="n">
+        <v>196</v>
+      </c>
+      <c r="KR28" t="inlineStr"/>
+      <c r="KS28" t="inlineStr"/>
+      <c r="KT28" t="inlineStr"/>
+      <c r="KU28" t="inlineStr"/>
+      <c r="KV28" t="inlineStr"/>
+      <c r="KW28" t="inlineStr"/>
+      <c r="KX28" t="inlineStr"/>
+      <c r="KY28" t="inlineStr"/>
+      <c r="KZ28" t="inlineStr"/>
+      <c r="LA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -21150,7 +21732,25 @@
       <c r="KN29" t="n">
         <v>43</v>
       </c>
-      <c r="KO29" t="inlineStr"/>
+      <c r="KO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>64</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>61</v>
+      </c>
+      <c r="KR29" t="inlineStr"/>
+      <c r="KS29" t="inlineStr"/>
+      <c r="KT29" t="inlineStr"/>
+      <c r="KU29" t="inlineStr"/>
+      <c r="KV29" t="inlineStr"/>
+      <c r="KW29" t="inlineStr"/>
+      <c r="KX29" t="inlineStr"/>
+      <c r="KY29" t="inlineStr"/>
+      <c r="KZ29" t="inlineStr"/>
+      <c r="LA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -22023,39 +22623,75 @@
         <v>119620</v>
       </c>
       <c r="KD30" t="n">
-        <v>134197</v>
+        <v>134198</v>
       </c>
       <c r="KE30" t="n">
-        <v>143157</v>
+        <v>143161</v>
       </c>
       <c r="KF30" t="n">
         <v>169885</v>
       </c>
       <c r="KG30" t="n">
-        <v>145242</v>
+        <v>145243</v>
       </c>
       <c r="KH30" t="n">
-        <v>142930</v>
+        <v>142934</v>
       </c>
       <c r="KI30" t="n">
-        <v>149666</v>
+        <v>149669</v>
       </c>
       <c r="KJ30" t="n">
-        <v>110510</v>
+        <v>110511</v>
       </c>
       <c r="KK30" t="n">
-        <v>64763</v>
+        <v>64767</v>
       </c>
       <c r="KL30" t="n">
-        <v>105293</v>
+        <v>105315</v>
       </c>
       <c r="KM30" t="n">
-        <v>101045</v>
+        <v>101101</v>
       </c>
       <c r="KN30" t="n">
-        <v>104478</v>
+        <v>104520</v>
       </c>
       <c r="KO30" t="n">
+        <v>86710</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>107847</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>110869</v>
+      </c>
+      <c r="KR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA30" t="n">
         <v>0</v>
       </c>
     </row>
